--- a/biology/Botanique/Virus_de_la_jaunisse_nanisante_de_la_pomme_de_terre/Virus_de_la_jaunisse_nanisante_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Virus_de_la_jaunisse_nanisante_de_la_pomme_de_terre/Virus_de_la_jaunisse_nanisante_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potato yellow dwarf alphanucleorhabdovirus
 Le virus de la jaunisse nanisante de la pomme de terre (PYDV, Potato yellow dwarf alphanucleorhabdovirus)  est un virus du genre Alphanucleorhabdovirus (famille des Rhabdoviridae), dont il est l'espèce-type. C'est un virus à ARN à simple brin à polarité négative, classés dans le groupe V de la classification Baltimore.
